--- a/media/resources/WAREHOUSE CONFIRMATION TEMPLATE.xlsx
+++ b/media/resources/WAREHOUSE CONFIRMATION TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cypherjac.CYPHERJAC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\catalogue\media\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">PKGS </t>
   </si>
   <si>
-    <t>1. Please let us have your Invoice for for warehousing charges(if applicable).</t>
-  </si>
-  <si>
     <t>To : MITCHELL COTTS FREIGHT KENYA LTD</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>DUST2</t>
+  </si>
+  <si>
+    <t>1. Please let us have your Invoice for warehousing charges (if applicable).</t>
   </si>
 </sst>
 </file>
@@ -424,165 +424,48 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146171</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>63033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>867434</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>130342</xdr:rowOff>
+      <xdr:rowOff>45738</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4946650" y="0"/>
-          <a:ext cx="4044950" cy="1235242"/>
+          <a:off x="6457831" y="63033"/>
+          <a:ext cx="2566358" cy="1094554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial Nova Cond" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>PRIME TEA BROKERS LIMITED</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:effectLst/>
-            <a:latin typeface="Arial Nova Cond" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="r">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial Nova Cond" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1st Floor Suite 4, Rex House, Moi Avenue</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="r">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial Nova Cond" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>P.O. Box 83070 –80100</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="r">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial Nova Cond" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>MOMBASA,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial Nova Cond" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> KENYA</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="r">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial Nova Cond" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Tel No. +254 114 591 868</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial Nova Cond" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="r">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial Nova Cond" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>info@primeteabrokers.com</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -612,7 +495,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -927,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="79" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -984,7 +867,7 @@
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -1007,7 +890,7 @@
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1018,7 +901,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -1075,7 +958,7 @@
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1122,23 +1005,23 @@
         <v>24390</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="47">
         <v>40</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="48" t="s">
         <v>17</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>18</v>
       </c>
       <c r="I13" s="48">
         <v>40</v>
@@ -1152,23 +1035,23 @@
         <v>24391</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="47">
         <v>40</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="48" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>18</v>
       </c>
       <c r="I14" s="48">
         <v>40</v>
@@ -1182,23 +1065,23 @@
         <v>24448</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="50">
         <v>20</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="51">
         <v>20</v>
@@ -1212,23 +1095,23 @@
         <v>24449</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="50">
         <v>20</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="51">
         <v>20</v>
@@ -1263,7 +1146,7 @@
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="32" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
